--- a/biology/Botanique/Caragana/Caragana.xlsx
+++ b/biology/Botanique/Caragana/Caragana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Caragana est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire des régions tempérées et tempérées et chaudes du Sud-Est de l'Europe à l'Asie, qui comprend environ 90 espèces acceptées[2].
+Caragana est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire des régions tempérées et tempérées et chaudes du Sud-Est de l'Europe à l'Asie, qui comprend environ 90 espèces acceptées.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Caragana », dérive d'un terme mongol, « qaraqan », désignant l'espèce Caragana arborescens[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Caragana », dérive d'un terme mongol, « qaraqan », désignant l'espèce Caragana arborescens,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caraganiers sont de petits arbres ou arbustes pouvant mesurer de 1 à 6 mètres de haut.
 Ils ont des feuilles pennées avec de petites folioles.
@@ -576,9 +592,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (19 décembre 2018)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (19 décembre 2018) :
 Caragana acanthophylla Kom.
 Caragana aegacanthoides (R. Parker) L.B.Chaudhary &amp; S.K. Srivast.
 Caragana afghanica Kitam.
